--- a/data/pca/factorExposure/factorExposure_2017-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02371854107180828</v>
+        <v>0.01036902444414025</v>
       </c>
       <c r="C2">
-        <v>-0.00532804164274815</v>
+        <v>-0.04235543373979266</v>
       </c>
       <c r="D2">
-        <v>-0.03437049054111288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02920052338293374</v>
+      </c>
+      <c r="E2">
+        <v>0.03430216195613416</v>
+      </c>
+      <c r="F2">
+        <v>-0.009613945483695362</v>
+      </c>
+      <c r="G2">
+        <v>-0.09373251047886909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01800687071821246</v>
+        <v>0.04159129580103346</v>
       </c>
       <c r="C3">
-        <v>0.01256793128275375</v>
+        <v>-0.1021478498635011</v>
       </c>
       <c r="D3">
-        <v>-0.1088226425427635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01775275773209143</v>
+      </c>
+      <c r="E3">
+        <v>0.09903434686651812</v>
+      </c>
+      <c r="F3">
+        <v>-0.005401860628481611</v>
+      </c>
+      <c r="G3">
+        <v>-0.1750730375849698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02465857544228731</v>
+        <v>0.05563155247188684</v>
       </c>
       <c r="C4">
-        <v>-0.002048285678057334</v>
+        <v>-0.0684190078043854</v>
       </c>
       <c r="D4">
-        <v>-0.0857933743115202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02434197732903646</v>
+      </c>
+      <c r="E4">
+        <v>0.02979487744608721</v>
+      </c>
+      <c r="F4">
+        <v>-0.0100584288340704</v>
+      </c>
+      <c r="G4">
+        <v>-0.1000631586894164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01150640898053649</v>
+        <v>0.03664736638692874</v>
       </c>
       <c r="C6">
-        <v>-0.01307657693132467</v>
+        <v>-0.05242533022394728</v>
       </c>
       <c r="D6">
-        <v>-0.08120981526957266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0168920570695191</v>
+      </c>
+      <c r="E6">
+        <v>0.03558631915376483</v>
+      </c>
+      <c r="F6">
+        <v>-0.006628901860038019</v>
+      </c>
+      <c r="G6">
+        <v>-0.08344624218513405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.008426708648780751</v>
+        <v>0.02071687887632261</v>
       </c>
       <c r="C7">
-        <v>-0.009148965745695889</v>
+        <v>-0.03966437889915888</v>
       </c>
       <c r="D7">
-        <v>-0.03562690066669629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01393698514291537</v>
+      </c>
+      <c r="E7">
+        <v>0.005168363492342363</v>
+      </c>
+      <c r="F7">
+        <v>0.003533950461444722</v>
+      </c>
+      <c r="G7">
+        <v>-0.1203851351100857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>9.440717589551824e-05</v>
+        <v>0.003255137288791868</v>
       </c>
       <c r="C8">
-        <v>-0.001806611409884427</v>
+        <v>-0.02467557235393861</v>
       </c>
       <c r="D8">
-        <v>-0.001460511151367795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003951652646080943</v>
+      </c>
+      <c r="E8">
+        <v>0.02753408673213874</v>
+      </c>
+      <c r="F8">
+        <v>-0.006069243936970396</v>
+      </c>
+      <c r="G8">
+        <v>-0.06951125736722646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01877179526203055</v>
+        <v>0.03370591361551342</v>
       </c>
       <c r="C9">
-        <v>0.004961341507936492</v>
+        <v>-0.04939851009507166</v>
       </c>
       <c r="D9">
-        <v>-0.06262956307619276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01636181241435599</v>
+      </c>
+      <c r="E9">
+        <v>0.01924361539123273</v>
+      </c>
+      <c r="F9">
+        <v>-0.007212694614008248</v>
+      </c>
+      <c r="G9">
+        <v>-0.1001867954225402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07775927936946826</v>
+        <v>0.09815893924530703</v>
       </c>
       <c r="C10">
-        <v>0.175575034656508</v>
+        <v>0.1819820105898787</v>
       </c>
       <c r="D10">
-        <v>0.09026010433198385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01513368209534484</v>
+      </c>
+      <c r="E10">
+        <v>0.02093500833372394</v>
+      </c>
+      <c r="F10">
+        <v>0.02273069151165151</v>
+      </c>
+      <c r="G10">
+        <v>-0.05881169254249637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004254082331032022</v>
+        <v>0.03449682582114637</v>
       </c>
       <c r="C11">
-        <v>-0.003812496602941897</v>
+        <v>-0.05432591468490682</v>
       </c>
       <c r="D11">
-        <v>-0.05618672278666326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002460365879441456</v>
+      </c>
+      <c r="E11">
+        <v>0.01720147805828015</v>
+      </c>
+      <c r="F11">
+        <v>-0.02164926454554818</v>
+      </c>
+      <c r="G11">
+        <v>-0.09198404306074347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.003973811152695218</v>
+        <v>0.03591395677374297</v>
       </c>
       <c r="C12">
-        <v>-0.005369391250724855</v>
+        <v>-0.04908552383835189</v>
       </c>
       <c r="D12">
-        <v>-0.04802738827779743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006517017225095149</v>
+      </c>
+      <c r="E12">
+        <v>0.008315605629965002</v>
+      </c>
+      <c r="F12">
+        <v>-0.002462462029391841</v>
+      </c>
+      <c r="G12">
+        <v>-0.08349823179617748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02484732540492439</v>
+        <v>0.0154267400417376</v>
       </c>
       <c r="C13">
-        <v>0.001731258601838802</v>
+        <v>-0.04202235715521712</v>
       </c>
       <c r="D13">
-        <v>-0.03969326377886759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02637786139742392</v>
+      </c>
+      <c r="E13">
+        <v>0.03606862448843597</v>
+      </c>
+      <c r="F13">
+        <v>-0.00601125337185136</v>
+      </c>
+      <c r="G13">
+        <v>-0.13575163934614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008372659019851876</v>
+        <v>0.008465715659194628</v>
       </c>
       <c r="C14">
-        <v>0.001106376680152629</v>
+        <v>-0.02893319591544064</v>
       </c>
       <c r="D14">
-        <v>-0.01691354010599726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0100495067281852</v>
+      </c>
+      <c r="E14">
+        <v>0.006749366879142384</v>
+      </c>
+      <c r="F14">
+        <v>0.007314478327469399</v>
+      </c>
+      <c r="G14">
+        <v>-0.1032200070372019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00240684367957222</v>
+        <v>0.03314644686462194</v>
       </c>
       <c r="C16">
-        <v>0.002912122662866559</v>
+        <v>-0.04722459691290293</v>
       </c>
       <c r="D16">
-        <v>-0.04514267733714751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001929215019351944</v>
+      </c>
+      <c r="E16">
+        <v>0.01473305802751205</v>
+      </c>
+      <c r="F16">
+        <v>-0.003057302357281271</v>
+      </c>
+      <c r="G16">
+        <v>-0.09238834570967934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01172323891307498</v>
+        <v>0.02180152682983594</v>
       </c>
       <c r="C19">
-        <v>-0.00586292798180721</v>
+        <v>-0.05398251499436971</v>
       </c>
       <c r="D19">
-        <v>-0.04825291249298828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0188113608661616</v>
+      </c>
+      <c r="E19">
+        <v>0.07447941648872146</v>
+      </c>
+      <c r="F19">
+        <v>-0.0208815017162526</v>
+      </c>
+      <c r="G19">
+        <v>-0.1333278709873439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.007944807785807773</v>
+        <v>0.01433434668943754</v>
       </c>
       <c r="C20">
-        <v>-0.008648785055599078</v>
+        <v>-0.04179362511439862</v>
       </c>
       <c r="D20">
-        <v>-0.03561265840302862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01433006906615345</v>
+      </c>
+      <c r="E20">
+        <v>0.03639157794964733</v>
+      </c>
+      <c r="F20">
+        <v>0.01155551059285503</v>
+      </c>
+      <c r="G20">
+        <v>-0.1100269198614458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01452524949195708</v>
+        <v>0.01205230602229687</v>
       </c>
       <c r="C21">
-        <v>-0.0002391302110573584</v>
+        <v>-0.03996345561959212</v>
       </c>
       <c r="D21">
-        <v>-0.03307586225791964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01892974453276557</v>
+      </c>
+      <c r="E21">
+        <v>0.04977594875265018</v>
+      </c>
+      <c r="F21">
+        <v>-0.002272647938167343</v>
+      </c>
+      <c r="G21">
+        <v>-0.1292985970022626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001465480627520236</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0004118340518357054</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0005845590124762585</v>
+      </c>
+      <c r="E22">
+        <v>0.003139699010377778</v>
+      </c>
+      <c r="F22">
+        <v>-0.001428608126559344</v>
+      </c>
+      <c r="G22">
+        <v>-0.005202935868471663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001470998511746186</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0004233626630734539</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0005833660643515696</v>
+      </c>
+      <c r="E23">
+        <v>0.003127203388556964</v>
+      </c>
+      <c r="F23">
+        <v>-0.001434225076225321</v>
+      </c>
+      <c r="G23">
+        <v>-0.005094465401112828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00153748754068558</v>
+        <v>0.02851046650143464</v>
       </c>
       <c r="C24">
-        <v>-0.009572086778580641</v>
+        <v>-0.05158082577367179</v>
       </c>
       <c r="D24">
-        <v>-0.04953471836632561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007207621395905693</v>
+      </c>
+      <c r="E24">
+        <v>0.01145334393523956</v>
+      </c>
+      <c r="F24">
+        <v>-0.0132503299423944</v>
+      </c>
+      <c r="G24">
+        <v>-0.09223692151651496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01305070278702831</v>
+        <v>0.04272318505352054</v>
       </c>
       <c r="C25">
-        <v>0.002071640269422642</v>
+        <v>-0.05884274430437841</v>
       </c>
       <c r="D25">
-        <v>-0.05967947821148012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01120085220033517</v>
+      </c>
+      <c r="E25">
+        <v>0.003516330657201172</v>
+      </c>
+      <c r="F25">
+        <v>-0.007329776408816138</v>
+      </c>
+      <c r="G25">
+        <v>-0.1016011957878321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02206989361220795</v>
+        <v>0.01432976362210284</v>
       </c>
       <c r="C26">
-        <v>-0.005261463811926922</v>
+        <v>-0.01140953617198157</v>
       </c>
       <c r="D26">
-        <v>-0.0008964507368052742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02404481948923452</v>
+      </c>
+      <c r="E26">
+        <v>0.009506249453148735</v>
+      </c>
+      <c r="F26">
+        <v>0.009601825233467684</v>
+      </c>
+      <c r="G26">
+        <v>-0.082591665071715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1120525043881347</v>
+        <v>0.12409184571859</v>
       </c>
       <c r="C28">
-        <v>0.2192881176602529</v>
+        <v>0.2377992423226119</v>
       </c>
       <c r="D28">
-        <v>0.1113988243934062</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00623421165261369</v>
+      </c>
+      <c r="E28">
+        <v>0.008282399322498678</v>
+      </c>
+      <c r="F28">
+        <v>0.01625295677358262</v>
+      </c>
+      <c r="G28">
+        <v>-0.04327173777886979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01077023140337604</v>
+        <v>0.009437094080358966</v>
       </c>
       <c r="C29">
-        <v>0.006783985703986298</v>
+        <v>-0.02306716486850066</v>
       </c>
       <c r="D29">
-        <v>-0.01981801393523417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009031230374645165</v>
+      </c>
+      <c r="E29">
+        <v>0.003888777097838911</v>
+      </c>
+      <c r="F29">
+        <v>0.0156026176202155</v>
+      </c>
+      <c r="G29">
+        <v>-0.09610658480346861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01943780954067564</v>
+        <v>0.04133846639263054</v>
       </c>
       <c r="C30">
-        <v>-0.01742217040908586</v>
+        <v>-0.07148742881859314</v>
       </c>
       <c r="D30">
-        <v>-0.103981840225946</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02864997190940626</v>
+      </c>
+      <c r="E30">
+        <v>0.05676237459804433</v>
+      </c>
+      <c r="F30">
+        <v>-0.04366710390341502</v>
+      </c>
+      <c r="G30">
+        <v>-0.1272416512871207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01613345164405239</v>
+        <v>0.052881481693347</v>
       </c>
       <c r="C31">
-        <v>0.02184750486598448</v>
+        <v>-0.03783319127121022</v>
       </c>
       <c r="D31">
-        <v>-0.03588430528728342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003855869332992032</v>
+      </c>
+      <c r="E31">
+        <v>0.0003830692414878553</v>
+      </c>
+      <c r="F31">
+        <v>0.04051481287703966</v>
+      </c>
+      <c r="G31">
+        <v>-0.09999095555034217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001607159086320246</v>
+        <v>0.001962020636954222</v>
       </c>
       <c r="C32">
-        <v>0.01572447839692489</v>
+        <v>-0.02534568371620533</v>
       </c>
       <c r="D32">
-        <v>-0.007000094899346604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.003472839206501036</v>
+      </c>
+      <c r="E32">
+        <v>0.02887459069103432</v>
+      </c>
+      <c r="F32">
+        <v>-0.03865181809544152</v>
+      </c>
+      <c r="G32">
+        <v>-0.07526119132066074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0123787751639804</v>
+        <v>0.02754763001259133</v>
       </c>
       <c r="C33">
-        <v>-0.0009225322943403568</v>
+        <v>-0.05132506295144396</v>
       </c>
       <c r="D33">
-        <v>-0.04572092696073204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01566021006625216</v>
+      </c>
+      <c r="E33">
+        <v>0.04198962448525968</v>
+      </c>
+      <c r="F33">
+        <v>-0.01593363944638082</v>
+      </c>
+      <c r="G33">
+        <v>-0.160395027880191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001223279020339802</v>
+        <v>0.04003485450758733</v>
       </c>
       <c r="C34">
-        <v>0.009466205504538741</v>
+        <v>-0.06044683304508919</v>
       </c>
       <c r="D34">
-        <v>-0.05758194081331055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004566969306211521</v>
+      </c>
+      <c r="E34">
+        <v>0.006384117775647611</v>
+      </c>
+      <c r="F34">
+        <v>-0.02100020575625179</v>
+      </c>
+      <c r="G34">
+        <v>-0.0954540075787428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01553957072358386</v>
+        <v>0.01617605661857851</v>
       </c>
       <c r="C36">
-        <v>0.007710610968065935</v>
+        <v>-0.009714773395042725</v>
       </c>
       <c r="D36">
-        <v>-0.006364450736778458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01248525047425828</v>
+      </c>
+      <c r="E36">
+        <v>0.008433695456699451</v>
+      </c>
+      <c r="F36">
+        <v>0.006690705639841651</v>
+      </c>
+      <c r="G36">
+        <v>-0.09077302538366348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005370898568470952</v>
+        <v>0.03119737080749592</v>
       </c>
       <c r="C38">
-        <v>0.02716761823945508</v>
+        <v>-0.03141562764508623</v>
       </c>
       <c r="D38">
-        <v>-0.04730402918294702</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007425711301646742</v>
+      </c>
+      <c r="E38">
+        <v>0.006310939619217558</v>
+      </c>
+      <c r="F38">
+        <v>0.0193090242414508</v>
+      </c>
+      <c r="G38">
+        <v>-0.08735217028656432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003327133996982063</v>
+        <v>0.03688284535160761</v>
       </c>
       <c r="C39">
-        <v>-0.02910822375291045</v>
+        <v>-0.080799775211751</v>
       </c>
       <c r="D39">
-        <v>-0.1015388340695576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01143987412035664</v>
+      </c>
+      <c r="E39">
+        <v>0.027076470790955</v>
+      </c>
+      <c r="F39">
+        <v>-0.02307582354477397</v>
+      </c>
+      <c r="G39">
+        <v>-0.08810732248124971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01339884502812116</v>
+        <v>0.01344432624105675</v>
       </c>
       <c r="C40">
-        <v>0.002478361828571548</v>
+        <v>-0.04108730171758057</v>
       </c>
       <c r="D40">
-        <v>-0.04033756766117239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01492640488833421</v>
+      </c>
+      <c r="E40">
+        <v>0.03236051272049799</v>
+      </c>
+      <c r="F40">
+        <v>0.006962337997241982</v>
+      </c>
+      <c r="G40">
+        <v>-0.1194189325769086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0126752786114829</v>
+        <v>0.02076128975032468</v>
       </c>
       <c r="C41">
-        <v>0.01942899517922827</v>
+        <v>-0.002274652510704554</v>
       </c>
       <c r="D41">
-        <v>0.01000867116739566</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004367465845716414</v>
+      </c>
+      <c r="E41">
+        <v>0.006946452451676391</v>
+      </c>
+      <c r="F41">
+        <v>0.01530152770105436</v>
+      </c>
+      <c r="G41">
+        <v>-0.08508684803112665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.07709052628549377</v>
+        <v>0.01008294647652527</v>
       </c>
       <c r="C42">
-        <v>-0.05813142572892821</v>
+        <v>-0.03448138724220632</v>
       </c>
       <c r="D42">
-        <v>-0.1682937287278138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08960432844774846</v>
+      </c>
+      <c r="E42">
+        <v>0.01671824861055586</v>
+      </c>
+      <c r="F42">
+        <v>0.04644291395403461</v>
+      </c>
+      <c r="G42">
+        <v>0.04102045862108392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01303737700584809</v>
+        <v>0.03519875802465929</v>
       </c>
       <c r="C43">
-        <v>0.01845405853908585</v>
+        <v>-0.01822753523914484</v>
       </c>
       <c r="D43">
-        <v>0.00403318199123967</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005879125622953525</v>
+      </c>
+      <c r="E43">
+        <v>0.02131719144539465</v>
+      </c>
+      <c r="F43">
+        <v>0.005792369503353544</v>
+      </c>
+      <c r="G43">
+        <v>-0.1220657282351854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002272565893044757</v>
+        <v>0.01310840013547321</v>
       </c>
       <c r="C44">
-        <v>-0.002763044402359453</v>
+        <v>-0.0589318184149315</v>
       </c>
       <c r="D44">
-        <v>-0.05659034868836596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006947489292613065</v>
+      </c>
+      <c r="E44">
+        <v>0.02310599380238869</v>
+      </c>
+      <c r="F44">
+        <v>0.003671716209036084</v>
+      </c>
+      <c r="G44">
+        <v>-0.1110555400172887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0105131145390419</v>
+        <v>0.007646032455166255</v>
       </c>
       <c r="C46">
-        <v>-0.0006637993599434431</v>
+        <v>-0.01727940518918709</v>
       </c>
       <c r="D46">
-        <v>-0.001650949459919779</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0127808983489649</v>
+      </c>
+      <c r="E46">
+        <v>0.004346608321837108</v>
+      </c>
+      <c r="F46">
+        <v>0.01554525714626103</v>
+      </c>
+      <c r="G46">
+        <v>-0.105556681331628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01085882505906874</v>
+        <v>0.0774582778656889</v>
       </c>
       <c r="C47">
-        <v>0.0253812239312983</v>
+        <v>-0.06856769579282732</v>
       </c>
       <c r="D47">
-        <v>-0.07477274897292478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004959184738038504</v>
+      </c>
+      <c r="E47">
+        <v>-0.00683795725055554</v>
+      </c>
+      <c r="F47">
+        <v>0.05453729549613517</v>
+      </c>
+      <c r="G47">
+        <v>-0.08512508554436345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006904744262536196</v>
+        <v>0.01923032119374569</v>
       </c>
       <c r="C48">
-        <v>0.0112676566460298</v>
+        <v>-0.01298731327348843</v>
       </c>
       <c r="D48">
-        <v>-0.01929179041885324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002052062007019306</v>
+      </c>
+      <c r="E48">
+        <v>0.004217554389157639</v>
+      </c>
+      <c r="F48">
+        <v>0.02027081551997637</v>
+      </c>
+      <c r="G48">
+        <v>-0.09694799156099784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01735440946569378</v>
+        <v>0.07519693219158893</v>
       </c>
       <c r="C50">
-        <v>0.03467451549806901</v>
+        <v>-0.07216597176788303</v>
       </c>
       <c r="D50">
-        <v>-0.07273291279697178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002183854399294974</v>
+      </c>
+      <c r="E50">
+        <v>-0.00347897493233396</v>
+      </c>
+      <c r="F50">
+        <v>0.05649807827505514</v>
+      </c>
+      <c r="G50">
+        <v>-0.09428321132975206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007694882579660974</v>
+        <v>0.01465433203875982</v>
       </c>
       <c r="C51">
-        <v>0.002277702950167003</v>
+        <v>-0.03602030874439744</v>
       </c>
       <c r="D51">
-        <v>-0.01892628180468836</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01049470719452699</v>
+      </c>
+      <c r="E51">
+        <v>0.02420268717670805</v>
+      </c>
+      <c r="F51">
+        <v>-0.02487007711505581</v>
+      </c>
+      <c r="G51">
+        <v>-0.1213344229482817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01660333873312638</v>
+        <v>0.08124519954541595</v>
       </c>
       <c r="C53">
-        <v>0.03056743142775621</v>
+        <v>-0.08601991048353537</v>
       </c>
       <c r="D53">
-        <v>-0.1341958999659514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003246189693559033</v>
+      </c>
+      <c r="E53">
+        <v>-0.02483701672743862</v>
+      </c>
+      <c r="F53">
+        <v>0.06320622529080618</v>
+      </c>
+      <c r="G53">
+        <v>-0.09480224652157121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01189131578349643</v>
+        <v>0.03235528405878837</v>
       </c>
       <c r="C54">
-        <v>0.03269279549146921</v>
+        <v>-0.01869219225670937</v>
       </c>
       <c r="D54">
-        <v>0.00145916315570701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001579969837243978</v>
+      </c>
+      <c r="E54">
+        <v>0.01678443321923502</v>
+      </c>
+      <c r="F54">
+        <v>0.005015017369407965</v>
+      </c>
+      <c r="G54">
+        <v>-0.107590462489326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.009908790691989177</v>
+        <v>0.07214656187959445</v>
       </c>
       <c r="C55">
-        <v>0.02002028361199104</v>
+        <v>-0.0692751824963363</v>
       </c>
       <c r="D55">
-        <v>-0.1081111733441889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004873380138261859</v>
+      </c>
+      <c r="E55">
+        <v>-0.02262854118642875</v>
+      </c>
+      <c r="F55">
+        <v>0.06348848910543672</v>
+      </c>
+      <c r="G55">
+        <v>-0.07163448257442315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01827375643483238</v>
+        <v>0.1368147969803772</v>
       </c>
       <c r="C56">
-        <v>0.04287696031580075</v>
+        <v>-0.1080193319260133</v>
       </c>
       <c r="D56">
-        <v>-0.1625347519956536</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01233139864600145</v>
+      </c>
+      <c r="E56">
+        <v>-0.03161928963407751</v>
+      </c>
+      <c r="F56">
+        <v>0.08046127055390737</v>
+      </c>
+      <c r="G56">
+        <v>-0.04775457101782195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02352497251413038</v>
+        <v>0.00529339906555277</v>
       </c>
       <c r="C57">
-        <v>-0.004529985478364934</v>
+        <v>-0.007073083909850366</v>
       </c>
       <c r="D57">
-        <v>-0.03559289723905976</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02327644170965905</v>
+      </c>
+      <c r="E57">
+        <v>0.02540844911608095</v>
+      </c>
+      <c r="F57">
+        <v>-0.01037514754409613</v>
+      </c>
+      <c r="G57">
+        <v>-0.02651950651988792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01890866155549183</v>
+        <v>0.05151724959689754</v>
       </c>
       <c r="C58">
-        <v>0.03352270485638754</v>
+        <v>-0.05271101421418427</v>
       </c>
       <c r="D58">
-        <v>-0.1691243008968539</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02065262972401128</v>
+      </c>
+      <c r="E58">
+        <v>0.9175752624444771</v>
+      </c>
+      <c r="F58">
+        <v>0.2639621921647426</v>
+      </c>
+      <c r="G58">
+        <v>0.215361269971997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1205087844760976</v>
+        <v>0.1599428792053412</v>
       </c>
       <c r="C59">
-        <v>0.2465482098675091</v>
+        <v>0.2045715208393093</v>
       </c>
       <c r="D59">
-        <v>0.09555969346066359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01162430569658906</v>
+      </c>
+      <c r="E59">
+        <v>0.02025040366818564</v>
+      </c>
+      <c r="F59">
+        <v>0.00442170171376923</v>
+      </c>
+      <c r="G59">
+        <v>-0.03825556030652798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.09982207375747466</v>
+        <v>0.2891286000234339</v>
       </c>
       <c r="C60">
-        <v>0.1592882860274539</v>
+        <v>-0.1057379913500703</v>
       </c>
       <c r="D60">
-        <v>-0.1476273194209691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01112768412696378</v>
+      </c>
+      <c r="E60">
+        <v>-0.002875833495698313</v>
+      </c>
+      <c r="F60">
+        <v>-0.338305152687466</v>
+      </c>
+      <c r="G60">
+        <v>0.1613073224982017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001652103559033038</v>
+        <v>0.03883689437086833</v>
       </c>
       <c r="C61">
-        <v>-0.005469040880600065</v>
+        <v>-0.06710371682606013</v>
       </c>
       <c r="D61">
-        <v>-0.0765060149923613</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005407498615649728</v>
+      </c>
+      <c r="E61">
+        <v>0.02226236372060393</v>
+      </c>
+      <c r="F61">
+        <v>-0.01455380964487375</v>
+      </c>
+      <c r="G61">
+        <v>-0.09506931401226396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007915720869289508</v>
+        <v>0.01540082295133623</v>
       </c>
       <c r="C63">
-        <v>-0.001647474313770483</v>
+        <v>-0.03045955156399977</v>
       </c>
       <c r="D63">
-        <v>-0.02565561822150298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008544869713767401</v>
+      </c>
+      <c r="E63">
+        <v>0.003364884698038738</v>
+      </c>
+      <c r="F63">
+        <v>0.019379013282858</v>
+      </c>
+      <c r="G63">
+        <v>-0.09406987535785082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01706396793681095</v>
+        <v>0.04867413425769908</v>
       </c>
       <c r="C64">
-        <v>0.02154084036587278</v>
+        <v>-0.04789684386647945</v>
       </c>
       <c r="D64">
-        <v>-0.06217297485719687</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006197026882740678</v>
+      </c>
+      <c r="E64">
+        <v>0.005500509675652709</v>
+      </c>
+      <c r="F64">
+        <v>-0.005072325646403092</v>
+      </c>
+      <c r="G64">
+        <v>-0.09888747303705783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02051272380980012</v>
+        <v>0.07463916984135795</v>
       </c>
       <c r="C65">
-        <v>0.000253463010382568</v>
+        <v>-0.05938159221175857</v>
       </c>
       <c r="D65">
-        <v>-0.1100341847769516</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01659631857139441</v>
+      </c>
+      <c r="E65">
+        <v>0.03809290479405767</v>
+      </c>
+      <c r="F65">
+        <v>-0.02818585505648515</v>
+      </c>
+      <c r="G65">
+        <v>-0.03856444440770792</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003303975049699223</v>
+        <v>0.05143538033960556</v>
       </c>
       <c r="C66">
-        <v>-0.02887893480692978</v>
+        <v>-0.1079688244558768</v>
       </c>
       <c r="D66">
-        <v>-0.1363850226750679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01145809462638248</v>
+      </c>
+      <c r="E66">
+        <v>0.03841191265994457</v>
+      </c>
+      <c r="F66">
+        <v>-0.03561807219755204</v>
+      </c>
+      <c r="G66">
+        <v>-0.1043483475942557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01691336847318022</v>
+        <v>0.0542791178730704</v>
       </c>
       <c r="C67">
-        <v>0.04275114973497454</v>
+        <v>-0.03444848765956626</v>
       </c>
       <c r="D67">
-        <v>-0.06575104878988236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00595012301154801</v>
+      </c>
+      <c r="E67">
+        <v>-0.001719985924420922</v>
+      </c>
+      <c r="F67">
+        <v>0.01799356056419856</v>
+      </c>
+      <c r="G67">
+        <v>-0.07684232878974159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1359736982328766</v>
+        <v>0.1556296988940877</v>
       </c>
       <c r="C68">
-        <v>0.2368049927593161</v>
+        <v>0.2712206371907684</v>
       </c>
       <c r="D68">
-        <v>0.1443777057054339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005814259159754148</v>
+      </c>
+      <c r="E68">
+        <v>0.01287512330487493</v>
+      </c>
+      <c r="F68">
+        <v>0.03632814210744562</v>
+      </c>
+      <c r="G68">
+        <v>-0.02898570958009296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01199532596406491</v>
+        <v>0.08305919259449954</v>
       </c>
       <c r="C69">
-        <v>0.03581185894769403</v>
+        <v>-0.06992204167118447</v>
       </c>
       <c r="D69">
-        <v>-0.0798882779403091</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008834672202287433</v>
+      </c>
+      <c r="E69">
+        <v>-0.02037671231181874</v>
+      </c>
+      <c r="F69">
+        <v>0.03566789132449431</v>
+      </c>
+      <c r="G69">
+        <v>-0.1038270270583783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1064407013193507</v>
+        <v>0.1407878985151019</v>
       </c>
       <c r="C71">
-        <v>0.1980825447650479</v>
+        <v>0.2292945067976087</v>
       </c>
       <c r="D71">
-        <v>0.09206929932990675</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002764868117082763</v>
+      </c>
+      <c r="E71">
+        <v>0.03541272211632432</v>
+      </c>
+      <c r="F71">
+        <v>0.02127111741193591</v>
+      </c>
+      <c r="G71">
+        <v>-0.06808896252999294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.005930789743997124</v>
+        <v>0.08630574981356606</v>
       </c>
       <c r="C72">
-        <v>0.02329993702718677</v>
+        <v>-0.06865447340704807</v>
       </c>
       <c r="D72">
-        <v>-0.1026946448083076</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008551638796689524</v>
+      </c>
+      <c r="E72">
+        <v>-0.008078908016840077</v>
+      </c>
+      <c r="F72">
+        <v>-0.04060393513900008</v>
+      </c>
+      <c r="G72">
+        <v>-0.08970276406514571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1176381172826076</v>
+        <v>0.3775999493492513</v>
       </c>
       <c r="C73">
-        <v>0.1714393522590058</v>
+        <v>-0.116739709710866</v>
       </c>
       <c r="D73">
-        <v>-0.2822178200599589</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01985117655456779</v>
+      </c>
+      <c r="E73">
+        <v>0.07703251942298954</v>
+      </c>
+      <c r="F73">
+        <v>-0.575009819990843</v>
+      </c>
+      <c r="G73">
+        <v>0.2908474488040387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0181629195914634</v>
+        <v>0.1048749887552509</v>
       </c>
       <c r="C74">
-        <v>0.04500917983190492</v>
+        <v>-0.109344194118003</v>
       </c>
       <c r="D74">
-        <v>-0.1801562195785603</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009369909059397195</v>
+      </c>
+      <c r="E74">
+        <v>-0.007090107319250033</v>
+      </c>
+      <c r="F74">
+        <v>0.06800616522098872</v>
+      </c>
+      <c r="G74">
+        <v>-0.08615159718575999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.04415227427230994</v>
+        <v>0.2474473517951918</v>
       </c>
       <c r="C75">
-        <v>0.1060313103556758</v>
+        <v>-0.1515208984578864</v>
       </c>
       <c r="D75">
-        <v>-0.2963700590301803</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03048771148762131</v>
+      </c>
+      <c r="E75">
+        <v>-0.06739509994849566</v>
+      </c>
+      <c r="F75">
+        <v>0.1696600056140104</v>
+      </c>
+      <c r="G75">
+        <v>0.009459638986530185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01721583802608301</v>
+        <v>0.1181783007614284</v>
       </c>
       <c r="C76">
-        <v>0.05640424506071305</v>
+        <v>-0.1095814101104088</v>
       </c>
       <c r="D76">
-        <v>-0.2156506630203495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01796801618583165</v>
+      </c>
+      <c r="E76">
+        <v>-0.02843648434749797</v>
+      </c>
+      <c r="F76">
+        <v>0.1058511885645947</v>
+      </c>
+      <c r="G76">
+        <v>-0.06135271408035239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01766777406211796</v>
+        <v>0.06787984494287294</v>
       </c>
       <c r="C77">
-        <v>0.009627684182676012</v>
+        <v>-0.05905067701876913</v>
       </c>
       <c r="D77">
-        <v>-0.07104141011188257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01106934150388566</v>
+      </c>
+      <c r="E77">
+        <v>0.04710403828648443</v>
+      </c>
+      <c r="F77">
+        <v>-0.01092106819031862</v>
+      </c>
+      <c r="G77">
+        <v>-0.06690710825010684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.007220512979782319</v>
+        <v>0.04205954412321472</v>
       </c>
       <c r="C78">
-        <v>0.00405888586095635</v>
+        <v>-0.05038165116056476</v>
       </c>
       <c r="D78">
-        <v>-0.05712563735913238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005979637771722037</v>
+      </c>
+      <c r="E78">
+        <v>0.02858087967768443</v>
+      </c>
+      <c r="F78">
+        <v>-0.03652657686349864</v>
+      </c>
+      <c r="G78">
+        <v>-0.1024605315913645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02406865344251414</v>
+        <v>0.04318345500453438</v>
       </c>
       <c r="C80">
-        <v>0.02062179129769421</v>
+        <v>-0.05118755739037387</v>
       </c>
       <c r="D80">
-        <v>-0.08633952938549212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0131349586275813</v>
+      </c>
+      <c r="E80">
+        <v>0.02431883994072993</v>
+      </c>
+      <c r="F80">
+        <v>-0.01488060692223015</v>
+      </c>
+      <c r="G80">
+        <v>-0.05088888215567939</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02661154581976937</v>
+        <v>0.1363644403413319</v>
       </c>
       <c r="C81">
-        <v>0.06184413346690141</v>
+        <v>-0.09540503616277959</v>
       </c>
       <c r="D81">
-        <v>-0.1722897969121688</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01470115747983408</v>
+      </c>
+      <c r="E81">
+        <v>-0.03451627963361974</v>
+      </c>
+      <c r="F81">
+        <v>0.1267914538434577</v>
+      </c>
+      <c r="G81">
+        <v>-0.02562759875567949</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1323348768680233</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07824807950972919</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.008857608402353188</v>
+      </c>
+      <c r="E82">
+        <v>-0.09911211875151013</v>
+      </c>
+      <c r="F82">
+        <v>0.04842304682376216</v>
+      </c>
+      <c r="G82">
+        <v>-0.07430946667544724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01210251504328921</v>
+        <v>0.03597450435365116</v>
       </c>
       <c r="C83">
-        <v>0.0144706797197267</v>
+        <v>-0.0294517329693322</v>
       </c>
       <c r="D83">
-        <v>-0.03540452570415291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005874614923501388</v>
+      </c>
+      <c r="E83">
+        <v>0.03014780027403554</v>
+      </c>
+      <c r="F83">
+        <v>-0.03024881993216911</v>
+      </c>
+      <c r="G83">
+        <v>-0.05871230469100613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.04447866223106769</v>
+        <v>0.2125876732996461</v>
       </c>
       <c r="C85">
-        <v>0.07957090286098142</v>
+        <v>-0.1468947287161199</v>
       </c>
       <c r="D85">
-        <v>-0.2706972337705215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0173462884554542</v>
+      </c>
+      <c r="E85">
+        <v>-0.1029428974666538</v>
+      </c>
+      <c r="F85">
+        <v>0.1237287453127857</v>
+      </c>
+      <c r="G85">
+        <v>0.060757513930598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01317453980567526</v>
+        <v>0.01379295716613118</v>
       </c>
       <c r="C86">
-        <v>0.01318731558746697</v>
+        <v>-0.02685819890584761</v>
       </c>
       <c r="D86">
-        <v>-0.05594017085927302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01180887424773928</v>
+      </c>
+      <c r="E86">
+        <v>0.05218555941020162</v>
+      </c>
+      <c r="F86">
+        <v>-0.02159164529966703</v>
+      </c>
+      <c r="G86">
+        <v>-0.1919950865178168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003969527589384224</v>
+        <v>0.02118659721231383</v>
       </c>
       <c r="C87">
-        <v>-0.01208314408840366</v>
+        <v>-0.0230474282999254</v>
       </c>
       <c r="D87">
-        <v>-0.04806272658499042</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01182552204002007</v>
+      </c>
+      <c r="E87">
+        <v>0.09254868385580928</v>
+      </c>
+      <c r="F87">
+        <v>-0.009888610418430135</v>
+      </c>
+      <c r="G87">
+        <v>-0.1217011459872957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03678241309134898</v>
+        <v>0.09383218716283073</v>
       </c>
       <c r="C88">
-        <v>0.02175968345015954</v>
+        <v>-0.0683730459989548</v>
       </c>
       <c r="D88">
-        <v>-0.05355250275327695</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02218426742708189</v>
+      </c>
+      <c r="E88">
+        <v>-0.003041569469944605</v>
+      </c>
+      <c r="F88">
+        <v>0.01886417658031919</v>
+      </c>
+      <c r="G88">
+        <v>-0.09335379878226696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1983676627784685</v>
+        <v>0.2316882969257288</v>
       </c>
       <c r="C89">
-        <v>0.3621988224222048</v>
+        <v>0.3678992450694488</v>
       </c>
       <c r="D89">
-        <v>0.1725615666743094</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003753485634401288</v>
+      </c>
+      <c r="E89">
+        <v>-0.01353523426909135</v>
+      </c>
+      <c r="F89">
+        <v>0.02549757232846612</v>
+      </c>
+      <c r="G89">
+        <v>-0.06906255152797515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1583738539202144</v>
+        <v>0.2080871283645898</v>
       </c>
       <c r="C90">
-        <v>0.2962282895168616</v>
+        <v>0.3180710011702279</v>
       </c>
       <c r="D90">
-        <v>0.1537786372337198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004214544657988338</v>
+      </c>
+      <c r="E90">
+        <v>0.002754481533385886</v>
+      </c>
+      <c r="F90">
+        <v>0.048341292027759</v>
+      </c>
+      <c r="G90">
+        <v>-0.04999179913114232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.03819404808135447</v>
+        <v>0.1854780240189329</v>
       </c>
       <c r="C91">
-        <v>0.09616146804583556</v>
+        <v>-0.140700056838216</v>
       </c>
       <c r="D91">
-        <v>-0.2252422672388152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02183190728809224</v>
+      </c>
+      <c r="E91">
+        <v>-0.06316344773544984</v>
+      </c>
+      <c r="F91">
+        <v>0.1429920278775703</v>
+      </c>
+      <c r="G91">
+        <v>-0.0361117619501973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1219988194102084</v>
+        <v>0.198364762565091</v>
       </c>
       <c r="C92">
-        <v>0.2917024955872244</v>
+        <v>0.2560456484381172</v>
       </c>
       <c r="D92">
-        <v>0.05863117622644488</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03768257830126746</v>
+      </c>
+      <c r="E92">
+        <v>0.04590426284386154</v>
+      </c>
+      <c r="F92">
+        <v>0.05905606278766596</v>
+      </c>
+      <c r="G92">
+        <v>-0.116146028454673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1653787539658269</v>
+        <v>0.2315661533584696</v>
       </c>
       <c r="C93">
-        <v>0.3201375509054482</v>
+        <v>0.3144481045948668</v>
       </c>
       <c r="D93">
-        <v>0.1255008037053582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01110849154684712</v>
+      </c>
+      <c r="E93">
+        <v>0.008162415678501995</v>
+      </c>
+      <c r="F93">
+        <v>0.04342233274865932</v>
+      </c>
+      <c r="G93">
+        <v>-0.06107697287341927</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.07746089909902575</v>
+        <v>0.3193920359660945</v>
       </c>
       <c r="C94">
-        <v>0.1270848981560672</v>
+        <v>-0.1774999131468073</v>
       </c>
       <c r="D94">
-        <v>-0.2899675228632004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01774660768005726</v>
+      </c>
+      <c r="E94">
+        <v>-0.2096024581905551</v>
+      </c>
+      <c r="F94">
+        <v>0.4817951227347141</v>
+      </c>
+      <c r="G94">
+        <v>0.4284914977258219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0003671747331098384</v>
+        <v>0.1015603601694277</v>
       </c>
       <c r="C95">
-        <v>0.01699092801390418</v>
+        <v>-0.08930059077162782</v>
       </c>
       <c r="D95">
-        <v>-0.1291521947058986</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01086861038788181</v>
+      </c>
+      <c r="E95">
+        <v>0.07509570825048251</v>
+      </c>
+      <c r="F95">
+        <v>-0.2033315957696027</v>
+      </c>
+      <c r="G95">
+        <v>0.04556952909625527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.05851032546054214</v>
+        <v>0.1968638138187289</v>
       </c>
       <c r="C98">
-        <v>0.1366839330141469</v>
+        <v>-0.04496695556094618</v>
       </c>
       <c r="D98">
-        <v>-0.1576886091806202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01387806626837602</v>
+      </c>
+      <c r="E98">
+        <v>0.07021594838242599</v>
+      </c>
+      <c r="F98">
+        <v>-0.2370697491758935</v>
+      </c>
+      <c r="G98">
+        <v>0.007742635012427194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01054080948498309</v>
+        <v>0.009220802824221835</v>
       </c>
       <c r="C101">
-        <v>0.006676988734115552</v>
+        <v>-0.02309021778111117</v>
       </c>
       <c r="D101">
-        <v>-0.01972672966859296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008875187095588748</v>
+      </c>
+      <c r="E101">
+        <v>0.003716203173510733</v>
+      </c>
+      <c r="F101">
+        <v>0.01655886350578825</v>
+      </c>
+      <c r="G101">
+        <v>-0.09501817606491836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.03031355965284653</v>
+        <v>0.1160018689415942</v>
       </c>
       <c r="C102">
-        <v>0.0400866582739964</v>
+        <v>-0.08366735573751917</v>
       </c>
       <c r="D102">
-        <v>-0.1322504238334862</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0009336958564241336</v>
+      </c>
+      <c r="E102">
+        <v>-0.0350474793519425</v>
+      </c>
+      <c r="F102">
+        <v>0.04117381281425789</v>
+      </c>
+      <c r="G102">
+        <v>-0.01784416042898936</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.8784351861935444</v>
+        <v>0.02111643525341766</v>
       </c>
       <c r="C104">
-        <v>-0.4577218466791286</v>
+        <v>0.02968288391910411</v>
       </c>
       <c r="D104">
-        <v>0.04034456589069337</v>
+        <v>-0.9879710468315189</v>
+      </c>
+      <c r="E104">
+        <v>-0.04731788466476484</v>
+      </c>
+      <c r="F104">
+        <v>0.03335502739404736</v>
+      </c>
+      <c r="G104">
+        <v>0.03675144723143346</v>
       </c>
     </row>
   </sheetData>
